--- a/CSCI 198/10-1--10-31--360464 Foundation Hourly Time Effort Report 2020 .xlsx
+++ b/CSCI 198/10-1--10-31--360464 Foundation Hourly Time Effort Report 2020 .xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler.gillette\Documents\school\CSCI 198\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE71D41-B492-4392-B1AA-4CFD0E5283C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82731AED-436D-41ED-A43B-590A90428163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="D460" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-15" sheetId="1" r:id="rId1"/>
@@ -1502,59 +1502,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1565,26 +1541,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1594,6 +1557,46 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1648,9 +1651,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1665,66 +1665,66 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3775,8 +3775,8 @@
   </sheetPr>
   <dimension ref="A1:AB1466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32:N32"/>
+    <sheetView topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3801,16 +3801,16 @@
       <c r="J1" s="9">
         <v>0</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="105"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="94"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -3861,8 +3861,8 @@
       </c>
       <c r="M4" s="113"/>
       <c r="N4" s="113"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="99" t="s">
+      <c r="O4" s="105"/>
+      <c r="P4" s="104" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="113"/>
@@ -3891,12 +3891,12 @@
       <c r="M5" s="110"/>
       <c r="N5" s="110"/>
       <c r="O5" s="111"/>
-      <c r="P5" s="124" t="s">
+      <c r="P5" s="123" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="110"/>
       <c r="R5" s="110"/>
-      <c r="S5" s="125"/>
+      <c r="S5" s="124"/>
     </row>
     <row r="6" spans="1:28" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -3910,47 +3910,47 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="P7" s="123" t="s">
+      <c r="P7" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
       <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:28" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="L9" s="93" t="s">
+      <c r="L9" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="95"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="89"/>
       <c r="W9" s="6"/>
     </row>
     <row r="10" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L10" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="121"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="110">
         <v>2020</v>
       </c>
       <c r="O10" s="110"/>
-      <c r="P10" s="122" t="s">
+      <c r="P10" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="122"/>
+      <c r="Q10" s="121"/>
       <c r="R10" s="110">
         <v>10</v>
       </c>
-      <c r="S10" s="125"/>
+      <c r="S10" s="124"/>
       <c r="U10"/>
       <c r="V10" s="5" t="s">
         <v>83</v>
@@ -4003,16 +4003,16 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="93" t="s">
+      <c r="L12" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="95"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="89"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -4089,15 +4089,15 @@
       </c>
       <c r="D14" s="6">
         <f t="shared" si="3"/>
-        <v>-27.499999999999996</v>
+        <v>-32</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="4"/>
-        <v>12.500000000000004</v>
+        <v>8</v>
       </c>
       <c r="F14" s="6">
         <f>IF(G14=7,SUM(Q6:Q16),"0.0")</f>
-        <v>12.500000000000004</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="5"/>
@@ -4119,17 +4119,17 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="N14" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="41">
         <f>ABS(((M14-N14)*24))+ABS(((P14-O14)*24))</f>
-        <v>4.5</v>
+        <v>1.9999999999999982</v>
       </c>
       <c r="R14" s="41">
         <f t="shared" ref="R14:R28" si="6">Q14-S14</f>
-        <v>4.5</v>
+        <v>1.9999999999999982</v>
       </c>
       <c r="S14" s="42">
         <f t="shared" ref="S14:S28" si="7">IF(Q14&gt;$W$6, Q14-$W$6, 0)</f>
@@ -4187,17 +4187,17 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="N15" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
       <c r="Q15" s="11">
         <f t="shared" ref="Q15:Q28" si="9">ABS(((M15-N15)*24))+ABS(((P15-O15)*24))</f>
-        <v>4.0000000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="R15" s="11">
         <f t="shared" si="6"/>
-        <v>4.0000000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="S15" s="43">
         <f t="shared" si="7"/>
@@ -4441,17 +4441,17 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="N19" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="11">
         <f t="shared" si="9"/>
-        <v>4.0000000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="R19" s="11">
         <f t="shared" si="6"/>
-        <v>4.0000000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="S19" s="43">
         <f t="shared" si="7"/>
@@ -4500,20 +4500,20 @@
         <v>45</v>
       </c>
       <c r="M20" s="39">
-        <v>0.72916666666666663</v>
+        <v>0</v>
       </c>
       <c r="N20" s="39">
-        <v>0.89583333333333337</v>
+        <v>0</v>
       </c>
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="11">
         <f t="shared" si="9"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="R20" s="11">
         <f t="shared" si="6"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="S20" s="43">
         <f t="shared" si="7"/>
@@ -4538,15 +4538,15 @@
       </c>
       <c r="D21" s="6">
         <f t="shared" si="3"/>
-        <v>-17.499999999999993</v>
+        <v>-29</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="4"/>
-        <v>22.500000000000007</v>
+        <v>11</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="10"/>
-        <v>22.500000000000007</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="5"/>
@@ -4568,17 +4568,17 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="N21" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="11">
         <f t="shared" si="9"/>
-        <v>4.5</v>
+        <v>1.9999999999999982</v>
       </c>
       <c r="R21" s="11">
         <f t="shared" si="6"/>
-        <v>4.5</v>
+        <v>1.9999999999999982</v>
       </c>
       <c r="S21" s="43">
         <f t="shared" si="7"/>
@@ -4633,17 +4633,17 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="N22" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="O22" s="39"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="11">
         <f t="shared" si="9"/>
-        <v>4.0000000000000018</v>
+        <v>3</v>
       </c>
       <c r="R22" s="11">
         <f t="shared" si="6"/>
-        <v>4.0000000000000018</v>
+        <v>3</v>
       </c>
       <c r="S22" s="43">
         <f t="shared" si="7"/>
@@ -4695,17 +4695,17 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="N23" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="O23" s="39"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="11">
         <f t="shared" si="9"/>
-        <v>4.0000000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="R23" s="11">
         <f t="shared" si="6"/>
-        <v>4.0000000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="S23" s="43">
         <f t="shared" si="7"/>
@@ -4816,20 +4816,20 @@
         <v>50</v>
       </c>
       <c r="M25" s="39">
-        <v>0.72916666666666663</v>
+        <v>0</v>
       </c>
       <c r="N25" s="39">
-        <v>0.8125</v>
+        <v>0</v>
       </c>
       <c r="O25" s="39"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="11">
         <f t="shared" si="9"/>
-        <v>2.0000000000000009</v>
+        <v>0</v>
       </c>
       <c r="R25" s="11">
         <f t="shared" si="6"/>
-        <v>2.0000000000000009</v>
+        <v>0</v>
       </c>
       <c r="S25" s="43">
         <f t="shared" si="7"/>
@@ -4878,20 +4878,20 @@
         <v>51</v>
       </c>
       <c r="M26" s="39">
-        <v>0.72916666666666663</v>
+        <v>0</v>
       </c>
       <c r="N26" s="39">
-        <v>0.89583333333333337</v>
+        <v>0</v>
       </c>
       <c r="O26" s="39"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="11">
         <f t="shared" si="9"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="R26" s="11">
         <f t="shared" si="6"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="S26" s="43">
         <f t="shared" si="7"/>
@@ -4910,20 +4910,20 @@
         <v>52</v>
       </c>
       <c r="M27" s="39">
-        <v>0.72916666666666663</v>
+        <v>0</v>
       </c>
       <c r="N27" s="39">
-        <v>0.89583333333333337</v>
+        <v>0</v>
       </c>
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="11">
         <f t="shared" si="9"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="R27" s="11">
         <f t="shared" si="6"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="S27" s="43">
         <f t="shared" si="7"/>
@@ -4944,17 +4944,17 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="N28" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="O28" s="40"/>
       <c r="P28" s="40"/>
       <c r="Q28" s="26">
         <f t="shared" si="9"/>
-        <v>4.5</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="R28" s="26">
         <f t="shared" si="6"/>
-        <v>4.5</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="S28" s="44">
         <f t="shared" si="7"/>
@@ -4973,16 +4973,16 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="81" t="s">
+      <c r="L30" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="83"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="130"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="130"/>
+      <c r="R30" s="130"/>
+      <c r="S30" s="131"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="I31" s="9"/>
@@ -4991,18 +4991,18 @@
       <c r="L31" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="M31" s="84" t="s">
+      <c r="M31" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="N31" s="85"/>
-      <c r="O31" s="86"/>
+      <c r="N31" s="133"/>
+      <c r="O31" s="134"/>
       <c r="P31" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="Q31" s="84" t="s">
+      <c r="Q31" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="R31" s="85"/>
+      <c r="R31" s="133"/>
       <c r="S31" s="69" t="s">
         <v>97</v>
       </c>
@@ -5015,13 +5015,13 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="73"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="87"/>
+      <c r="M32" s="137"/>
+      <c r="N32" s="137"/>
+      <c r="O32" s="135"/>
       <c r="P32" s="75"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="96">
+      <c r="Q32" s="101"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="139">
         <f>M32+M33+M34+Q32+Q33+Q34</f>
         <v>0</v>
       </c>
@@ -5031,26 +5031,26 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="73"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="87"/>
+      <c r="M33" s="137"/>
+      <c r="N33" s="137"/>
+      <c r="O33" s="135"/>
       <c r="P33" s="75"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="97"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="140"/>
     </row>
     <row r="34" spans="4:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="74"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="88"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="136"/>
       <c r="P34" s="76"/>
-      <c r="Q34" s="79"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="98"/>
+      <c r="Q34" s="127"/>
+      <c r="R34" s="128"/>
+      <c r="S34" s="141"/>
     </row>
     <row r="35" spans="4:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I35" s="9"/>
@@ -5064,16 +5064,16 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="93" t="s">
+      <c r="L36" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="95"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="89"/>
     </row>
     <row r="37" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D37" s="1">
@@ -5085,19 +5085,19 @@
       <c r="L37" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="M37" s="90" t="s">
+      <c r="M37" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="N37" s="133"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="99" t="s">
+      <c r="N37" s="102"/>
+      <c r="O37" s="103"/>
+      <c r="P37" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="126">
-        <v>13</v>
-      </c>
-      <c r="S37" s="127"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="90">
+        <v>12</v>
+      </c>
+      <c r="S37" s="91"/>
       <c r="V37" s="5" t="s">
         <v>100</v>
       </c>
@@ -5112,19 +5112,19 @@
       <c r="L38" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="M38" s="128" t="s">
+      <c r="M38" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="N38" s="129"/>
-      <c r="O38" s="130"/>
-      <c r="P38" s="121" t="s">
+      <c r="N38" s="96"/>
+      <c r="O38" s="97"/>
+      <c r="P38" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="Q38" s="132"/>
-      <c r="R38" s="129" t="s">
+      <c r="Q38" s="100"/>
+      <c r="R38" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="S38" s="131"/>
+      <c r="S38" s="98"/>
     </row>
     <row r="39" spans="4:22" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D39" s="1">
@@ -5149,16 +5149,16 @@
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="103" t="s">
+      <c r="L40" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="M40" s="104"/>
-      <c r="N40" s="104"/>
-      <c r="O40" s="104"/>
-      <c r="P40" s="104"/>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="104"/>
-      <c r="S40" s="105"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="94"/>
     </row>
     <row r="41" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D41" s="1">
@@ -5174,15 +5174,15 @@
       <c r="N41" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O41" s="99" t="s">
+      <c r="O41" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="P41" s="100"/>
-      <c r="Q41" s="101" t="s">
+      <c r="P41" s="105"/>
+      <c r="Q41" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="R41" s="101"/>
-      <c r="S41" s="102"/>
+      <c r="R41" s="142"/>
+      <c r="S41" s="143"/>
     </row>
     <row r="42" spans="4:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D42" s="1">
@@ -5196,24 +5196,24 @@
       </c>
       <c r="M42" s="51">
         <f>ROUND((SUM(R14:R28)-SUM(A12:A26)),2)</f>
-        <v>49.5</v>
+        <v>20</v>
       </c>
       <c r="N42" s="52">
         <f>R37</f>
-        <v>13</v>
-      </c>
-      <c r="O42" s="77">
+        <v>12</v>
+      </c>
+      <c r="O42" s="125">
         <f>M42*N42</f>
-        <v>643.5</v>
-      </c>
-      <c r="P42" s="78"/>
+        <v>240</v>
+      </c>
+      <c r="P42" s="126"/>
       <c r="Q42" s="50" t="s">
         <v>34</v>
       </c>
       <c r="R42" s="53"/>
       <c r="S42" s="54">
         <f>SUM(Q13:Q28)</f>
-        <v>49.500000000000007</v>
+        <v>20</v>
       </c>
       <c r="V42" s="5" t="s">
         <v>101</v>
@@ -5232,13 +5232,13 @@
       </c>
       <c r="N43" s="52">
         <f>R37</f>
-        <v>13</v>
-      </c>
-      <c r="O43" s="77">
+        <v>12</v>
+      </c>
+      <c r="O43" s="125">
         <f>M43*N43</f>
         <v>0</v>
       </c>
-      <c r="P43" s="78"/>
+      <c r="P43" s="126"/>
       <c r="Q43" s="50" t="s">
         <v>98</v>
       </c>
@@ -5265,20 +5265,20 @@
       </c>
       <c r="N44" s="56">
         <f>R37*1.5</f>
-        <v>19.5</v>
-      </c>
-      <c r="O44" s="134">
+        <v>18</v>
+      </c>
+      <c r="O44" s="77">
         <f>M44*N44</f>
         <v>0</v>
       </c>
-      <c r="P44" s="135"/>
+      <c r="P44" s="78"/>
       <c r="Q44" s="49" t="s">
         <v>41</v>
       </c>
       <c r="R44" s="57"/>
       <c r="S44" s="58">
         <f>SUM(O42:O44)</f>
-        <v>643.5</v>
+        <v>240</v>
       </c>
       <c r="V44" s="5" t="s">
         <v>81</v>
@@ -5333,16 +5333,16 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
-      <c r="L48" s="93" t="s">
+      <c r="L48" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="M48" s="94"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="94"/>
-      <c r="P48" s="94"/>
-      <c r="Q48" s="94"/>
-      <c r="R48" s="94"/>
-      <c r="S48" s="95"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="88"/>
+      <c r="P48" s="88"/>
+      <c r="Q48" s="88"/>
+      <c r="R48" s="88"/>
+      <c r="S48" s="89"/>
       <c r="V48" s="5" t="s">
         <v>102</v>
       </c>
@@ -5351,42 +5351,42 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
-      <c r="L49" s="138" t="s">
+      <c r="L49" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="M49" s="139"/>
-      <c r="N49" s="139"/>
-      <c r="O49" s="139"/>
-      <c r="P49" s="139"/>
-      <c r="Q49" s="139"/>
-      <c r="R49" s="139"/>
-      <c r="S49" s="140"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="82"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="83"/>
     </row>
     <row r="50" spans="8:22" x14ac:dyDescent="0.2">
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
-      <c r="L50" s="141"/>
-      <c r="M50" s="142"/>
-      <c r="N50" s="142"/>
-      <c r="O50" s="142"/>
-      <c r="P50" s="142"/>
-      <c r="Q50" s="142"/>
-      <c r="R50" s="142"/>
-      <c r="S50" s="143"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="85"/>
+      <c r="N50" s="85"/>
+      <c r="O50" s="85"/>
+      <c r="P50" s="85"/>
+      <c r="Q50" s="85"/>
+      <c r="R50" s="85"/>
+      <c r="S50" s="86"/>
     </row>
     <row r="51" spans="8:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
-      <c r="L51" s="141"/>
-      <c r="M51" s="142"/>
-      <c r="N51" s="142"/>
-      <c r="O51" s="142"/>
-      <c r="P51" s="142"/>
-      <c r="Q51" s="142"/>
-      <c r="R51" s="142"/>
-      <c r="S51" s="143"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="85"/>
+      <c r="N51" s="85"/>
+      <c r="O51" s="85"/>
+      <c r="P51" s="85"/>
+      <c r="Q51" s="85"/>
+      <c r="R51" s="85"/>
+      <c r="S51" s="86"/>
     </row>
     <row r="52" spans="8:22" x14ac:dyDescent="0.2">
       <c r="I52" s="9"/>
@@ -5440,16 +5440,16 @@
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
-      <c r="L56" s="93" t="s">
+      <c r="L56" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="M56" s="94"/>
-      <c r="N56" s="94"/>
-      <c r="O56" s="94"/>
-      <c r="P56" s="94"/>
-      <c r="Q56" s="94"/>
-      <c r="R56" s="94"/>
-      <c r="S56" s="95"/>
+      <c r="M56" s="88"/>
+      <c r="N56" s="88"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="88"/>
+      <c r="Q56" s="88"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="89"/>
       <c r="V56" s="5" t="s">
         <v>103</v>
       </c>
@@ -5458,29 +5458,29 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
-      <c r="L57" s="138" t="s">
+      <c r="L57" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="M57" s="139"/>
-      <c r="N57" s="139"/>
-      <c r="O57" s="139"/>
-      <c r="P57" s="139"/>
-      <c r="Q57" s="139"/>
-      <c r="R57" s="139"/>
-      <c r="S57" s="140"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="82"/>
+      <c r="P57" s="82"/>
+      <c r="Q57" s="82"/>
+      <c r="R57" s="82"/>
+      <c r="S57" s="83"/>
     </row>
     <row r="58" spans="8:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
-      <c r="L58" s="141"/>
-      <c r="M58" s="142"/>
-      <c r="N58" s="142"/>
-      <c r="O58" s="142"/>
-      <c r="P58" s="142"/>
-      <c r="Q58" s="142"/>
-      <c r="R58" s="142"/>
-      <c r="S58" s="143"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="85"/>
+      <c r="N58" s="85"/>
+      <c r="O58" s="85"/>
+      <c r="P58" s="85"/>
+      <c r="Q58" s="85"/>
+      <c r="R58" s="85"/>
+      <c r="S58" s="86"/>
     </row>
     <row r="59" spans="8:22" x14ac:dyDescent="0.2">
       <c r="I59" s="9"/>
@@ -5539,16 +5539,16 @@
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
-      <c r="L63" s="136" t="s">
+      <c r="L63" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="M63" s="136"/>
-      <c r="N63" s="136"/>
-      <c r="O63" s="136"/>
-      <c r="P63" s="136"/>
-      <c r="Q63" s="136"/>
-      <c r="R63" s="136"/>
-      <c r="S63" s="136"/>
+      <c r="M63" s="79"/>
+      <c r="N63" s="79"/>
+      <c r="O63" s="79"/>
+      <c r="P63" s="79"/>
+      <c r="Q63" s="79"/>
+      <c r="R63" s="79"/>
+      <c r="S63" s="79"/>
       <c r="V63" s="5" t="s">
         <v>104</v>
       </c>
@@ -5557,16 +5557,16 @@
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
-      <c r="L64" s="137" t="s">
+      <c r="L64" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="M64" s="137"/>
-      <c r="N64" s="137"/>
-      <c r="O64" s="137"/>
-      <c r="P64" s="137"/>
-      <c r="Q64" s="137"/>
-      <c r="R64" s="137"/>
-      <c r="S64" s="137"/>
+      <c r="M64" s="80"/>
+      <c r="N64" s="80"/>
+      <c r="O64" s="80"/>
+      <c r="P64" s="80"/>
+      <c r="Q64" s="80"/>
+      <c r="R64" s="80"/>
+      <c r="S64" s="80"/>
     </row>
     <row r="65" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I65" s="9"/>
@@ -12559,35 +12559,6 @@
   </sheetData>
   <sheetProtection password="D460" sheet="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="L63:S63"/>
-    <mergeCell ref="L64:S64"/>
-    <mergeCell ref="L57:S58"/>
-    <mergeCell ref="L48:S48"/>
-    <mergeCell ref="L49:S51"/>
-    <mergeCell ref="L56:S56"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="L40:S40"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="L12:S12"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="L9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="N10:O10"/>
     <mergeCell ref="O43:P43"/>
     <mergeCell ref="Q34:R34"/>
     <mergeCell ref="L30:S30"/>
@@ -12604,6 +12575,35 @@
     <mergeCell ref="O41:P41"/>
     <mergeCell ref="O42:P42"/>
     <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="L12:S12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="L9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="L40:S40"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="L63:S63"/>
+    <mergeCell ref="L64:S64"/>
+    <mergeCell ref="L57:S58"/>
+    <mergeCell ref="L48:S48"/>
+    <mergeCell ref="L49:S51"/>
+    <mergeCell ref="L56:S56"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -12662,8 +12662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC1468"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12688,16 +12688,16 @@
       <c r="K1" s="9">
         <v>0</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="M1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="105"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="94"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="K2" s="9">
@@ -12745,8 +12745,8 @@
       </c>
       <c r="N4" s="113"/>
       <c r="O4" s="113"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="99" t="s">
+      <c r="P4" s="105"/>
+      <c r="Q4" s="104" t="s">
         <v>14</v>
       </c>
       <c r="R4" s="113"/>
@@ -12775,10 +12775,10 @@
       <c r="N5" s="110"/>
       <c r="O5" s="110"/>
       <c r="P5" s="111"/>
-      <c r="Q5" s="124"/>
+      <c r="Q5" s="123"/>
       <c r="R5" s="110"/>
       <c r="S5" s="110"/>
-      <c r="T5" s="125"/>
+      <c r="T5" s="124"/>
     </row>
     <row r="6" spans="1:29" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -12795,47 +12795,47 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="123" t="s">
+      <c r="Q7" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="122"/>
       <c r="X7" s="6"/>
     </row>
     <row r="8" spans="1:29" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="X8" s="6"/>
     </row>
     <row r="9" spans="1:29" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="M9" s="93" t="s">
+      <c r="M9" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="95"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="89"/>
       <c r="X9" s="6"/>
     </row>
     <row r="10" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M10" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="121"/>
+      <c r="N10" s="99"/>
       <c r="O10" s="110">
         <v>2020</v>
       </c>
       <c r="P10" s="110"/>
-      <c r="Q10" s="122" t="s">
+      <c r="Q10" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="122"/>
+      <c r="R10" s="121"/>
       <c r="S10" s="110">
         <v>10</v>
       </c>
-      <c r="T10" s="125"/>
+      <c r="T10" s="124"/>
       <c r="V10"/>
       <c r="W10" s="5" t="s">
         <v>83</v>
@@ -12892,16 +12892,16 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="93" t="s">
+      <c r="M12" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="95"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="89"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -12922,15 +12922,15 @@
       </c>
       <c r="E13" s="6">
         <f t="shared" ref="E13:E26" si="4">F13-40</f>
-        <v>-31.999999999999996</v>
+        <v>-34</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" ref="F13:F26" si="5">IF(G13&lt;1,0,G13)</f>
-        <v>8.0000000000000036</v>
+        <v>6.0000000000000027</v>
       </c>
       <c r="G13" s="6">
         <f>IF(H13=7,SUM(R4:R15),"0.0")</f>
-        <v>8.0000000000000036</v>
+        <v>6.0000000000000027</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ref="H13:H27" si="6">WEEKDAY(K15)</f>
@@ -13016,17 +13016,17 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="O14" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
       <c r="R14" s="41">
         <f>ABS(((N14-O14)*24))+ABS(((Q14-P14)*24))</f>
-        <v>4.0000000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="S14" s="41">
         <f t="shared" ref="S14:S29" si="7">R14-T14</f>
-        <v>4.0000000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="T14" s="42">
         <f t="shared" ref="T14:T29" si="8">IF(R14&gt;$X$6, R14-$X$6, 0)</f>
@@ -13286,20 +13286,20 @@
         <v>58</v>
       </c>
       <c r="N18" s="39">
-        <v>0.72916666666666663</v>
+        <v>0</v>
       </c>
       <c r="O18" s="39">
-        <v>0.89583333333333337</v>
+        <v>0</v>
       </c>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
       <c r="R18" s="11">
         <f t="shared" si="10"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="S18" s="11">
         <f t="shared" si="7"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="T18" s="43">
         <f t="shared" si="8"/>
@@ -13358,17 +13358,17 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="O19" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
       <c r="R19" s="11">
         <f t="shared" si="10"/>
-        <v>4.0000000000000018</v>
+        <v>1.0000000000000018</v>
       </c>
       <c r="S19" s="11">
         <f t="shared" si="7"/>
-        <v>4.0000000000000018</v>
+        <v>1.0000000000000018</v>
       </c>
       <c r="T19" s="43">
         <f t="shared" si="8"/>
@@ -13394,15 +13394,15 @@
       </c>
       <c r="E20" s="6">
         <f t="shared" si="4"/>
-        <v>-21.499999999999993</v>
+        <v>-36</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="5"/>
-        <v>18.500000000000007</v>
+        <v>4.0000000000000018</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="11"/>
-        <v>18.500000000000007</v>
+        <v>4.0000000000000018</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="6"/>
@@ -13424,17 +13424,17 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="O20" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
       <c r="R20" s="11">
         <f t="shared" si="10"/>
-        <v>4.5</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="S20" s="11">
         <f t="shared" si="7"/>
-        <v>4.5</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="T20" s="43">
         <f t="shared" si="8"/>
@@ -13559,20 +13559,20 @@
         <v>62</v>
       </c>
       <c r="N22" s="39">
-        <v>0.72916666666666663</v>
+        <v>0</v>
       </c>
       <c r="O22" s="39">
-        <v>0.89583333333333337</v>
+        <v>0</v>
       </c>
       <c r="P22" s="39"/>
       <c r="Q22" s="39"/>
       <c r="R22" s="11">
         <f t="shared" si="10"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="S22" s="11">
         <f t="shared" si="7"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="T22" s="43">
         <f t="shared" si="8"/>
@@ -13862,15 +13862,15 @@
       </c>
       <c r="E27" s="6">
         <f>F27-40</f>
-        <v>-25.499999999999993</v>
+        <v>-30</v>
       </c>
       <c r="F27" s="6">
         <f>IF(G27&lt;1,0,G27)</f>
-        <v>14.500000000000005</v>
+        <v>10</v>
       </c>
       <c r="G27" s="6">
         <f>IF(H27=7,SUM(R23:R30),"0.0")</f>
-        <v>14.500000000000005</v>
+        <v>10</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="6"/>
@@ -13892,17 +13892,17 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="O27" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P27" s="39"/>
       <c r="Q27" s="39"/>
       <c r="R27" s="11">
         <f t="shared" si="10"/>
-        <v>4.5</v>
+        <v>1.9999999999999982</v>
       </c>
       <c r="S27" s="11">
         <f t="shared" si="7"/>
-        <v>4.5</v>
+        <v>1.9999999999999982</v>
       </c>
       <c r="T27" s="43">
         <f t="shared" si="8"/>
@@ -13924,17 +13924,17 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="O28" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
       <c r="R28" s="61">
         <f>ABS(((N28-O28)*24))+ABS(((Q28-P28)*24))</f>
-        <v>4.0000000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="S28" s="61">
         <f>R28-T28</f>
-        <v>4.0000000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="T28" s="62">
         <f>IF(R28&gt;$X$6, R28-$X$6, 0)</f>
@@ -13984,16 +13984,16 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="81" t="s">
+      <c r="M31" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="83"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="130"/>
+      <c r="T31" s="131"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="J32" s="9"/>
@@ -14002,18 +14002,18 @@
       <c r="M32" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="N32" s="84" t="s">
+      <c r="N32" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="O32" s="85"/>
-      <c r="P32" s="86"/>
+      <c r="O32" s="133"/>
+      <c r="P32" s="134"/>
       <c r="Q32" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="R32" s="84" t="s">
+      <c r="R32" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="S32" s="85"/>
+      <c r="S32" s="133"/>
       <c r="T32" s="69" t="s">
         <v>97</v>
       </c>
@@ -14026,13 +14026,13 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="73"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="87"/>
+      <c r="N33" s="137"/>
+      <c r="O33" s="137"/>
+      <c r="P33" s="135"/>
       <c r="Q33" s="75"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="96">
+      <c r="R33" s="101"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="139">
         <f>N33+N34+N35+R33+R34+R35</f>
         <v>0</v>
       </c>
@@ -14042,26 +14042,26 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="73"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="87"/>
+      <c r="N34" s="137"/>
+      <c r="O34" s="137"/>
+      <c r="P34" s="135"/>
       <c r="Q34" s="75"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="97"/>
+      <c r="R34" s="101"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="140"/>
     </row>
     <row r="35" spans="5:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="74"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="88"/>
+      <c r="N35" s="138"/>
+      <c r="O35" s="138"/>
+      <c r="P35" s="136"/>
       <c r="Q35" s="76"/>
-      <c r="R35" s="79"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="98"/>
+      <c r="R35" s="127"/>
+      <c r="S35" s="128"/>
+      <c r="T35" s="141"/>
     </row>
     <row r="36" spans="5:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J36" s="9"/>
@@ -14075,16 +14075,16 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="93" t="s">
+      <c r="M37" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="N37" s="94"/>
-      <c r="O37" s="94"/>
-      <c r="P37" s="94"/>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="94"/>
-      <c r="S37" s="94"/>
-      <c r="T37" s="95"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="89"/>
     </row>
     <row r="38" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E38" s="1">
@@ -14096,19 +14096,19 @@
       <c r="M38" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N38" s="90" t="s">
+      <c r="N38" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="O38" s="133"/>
-      <c r="P38" s="91"/>
-      <c r="Q38" s="99" t="s">
+      <c r="O38" s="102"/>
+      <c r="P38" s="103"/>
+      <c r="Q38" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="R38" s="100"/>
-      <c r="S38" s="126">
-        <v>13</v>
-      </c>
-      <c r="T38" s="127"/>
+      <c r="R38" s="105"/>
+      <c r="S38" s="90">
+        <v>12</v>
+      </c>
+      <c r="T38" s="91"/>
       <c r="W38" s="5" t="s">
         <v>100</v>
       </c>
@@ -14123,19 +14123,19 @@
       <c r="M39" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N39" s="128" t="s">
+      <c r="N39" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="O39" s="129"/>
-      <c r="P39" s="130"/>
-      <c r="Q39" s="121" t="s">
+      <c r="O39" s="96"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="R39" s="132"/>
-      <c r="S39" s="129" t="s">
+      <c r="R39" s="100"/>
+      <c r="S39" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="T39" s="131"/>
+      <c r="T39" s="98"/>
     </row>
     <row r="40" spans="5:23" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E40" s="1">
@@ -14160,16 +14160,16 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
-      <c r="M41" s="93" t="s">
+      <c r="M41" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="N41" s="94"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="94"/>
-      <c r="Q41" s="94"/>
-      <c r="R41" s="94"/>
-      <c r="S41" s="94"/>
-      <c r="T41" s="95"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="89"/>
     </row>
     <row r="42" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E42" s="1">
@@ -14185,15 +14185,15 @@
       <c r="O42" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P42" s="99" t="s">
+      <c r="P42" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="Q42" s="100"/>
-      <c r="R42" s="101" t="s">
+      <c r="Q42" s="105"/>
+      <c r="R42" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="S42" s="101"/>
-      <c r="T42" s="102"/>
+      <c r="S42" s="142"/>
+      <c r="T42" s="143"/>
     </row>
     <row r="43" spans="5:23" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E43" s="1">
@@ -14207,24 +14207,24 @@
       </c>
       <c r="N43" s="51">
         <f>ROUND((SUM(S14:S29)-SUM(A12:A27)),2)</f>
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="O43" s="52">
         <f>S38</f>
-        <v>13</v>
-      </c>
-      <c r="P43" s="77">
+        <v>12</v>
+      </c>
+      <c r="P43" s="125">
         <f>N43*O43</f>
-        <v>533</v>
-      </c>
-      <c r="Q43" s="78"/>
+        <v>240</v>
+      </c>
+      <c r="Q43" s="126"/>
       <c r="R43" s="50" t="s">
         <v>34</v>
       </c>
       <c r="S43" s="53"/>
       <c r="T43" s="54">
         <f>SUM(R14:R29)</f>
-        <v>41.000000000000007</v>
+        <v>20.000000000000007</v>
       </c>
       <c r="W43" s="5" t="s">
         <v>101</v>
@@ -14243,13 +14243,13 @@
       </c>
       <c r="O44" s="52">
         <f>S38</f>
-        <v>13</v>
-      </c>
-      <c r="P44" s="77">
+        <v>12</v>
+      </c>
+      <c r="P44" s="125">
         <f>N44*O44</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="78"/>
+      <c r="Q44" s="126"/>
       <c r="R44" s="70" t="s">
         <v>98</v>
       </c>
@@ -14276,20 +14276,20 @@
       </c>
       <c r="O45" s="56">
         <f>S38*1.5</f>
-        <v>19.5</v>
-      </c>
-      <c r="P45" s="134">
+        <v>18</v>
+      </c>
+      <c r="P45" s="77">
         <f>N45*O45</f>
         <v>0</v>
       </c>
-      <c r="Q45" s="135"/>
+      <c r="Q45" s="78"/>
       <c r="R45" s="49" t="s">
         <v>41</v>
       </c>
       <c r="S45" s="57"/>
       <c r="T45" s="58">
         <f>SUM(P43:P45)</f>
-        <v>533</v>
+        <v>240</v>
       </c>
       <c r="W45" s="5" t="s">
         <v>81</v>
@@ -14344,16 +14344,16 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="93" t="s">
+      <c r="M49" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="N49" s="94"/>
-      <c r="O49" s="94"/>
-      <c r="P49" s="94"/>
-      <c r="Q49" s="94"/>
-      <c r="R49" s="94"/>
-      <c r="S49" s="94"/>
-      <c r="T49" s="95"/>
+      <c r="N49" s="88"/>
+      <c r="O49" s="88"/>
+      <c r="P49" s="88"/>
+      <c r="Q49" s="88"/>
+      <c r="R49" s="88"/>
+      <c r="S49" s="88"/>
+      <c r="T49" s="89"/>
       <c r="W49" s="5" t="s">
         <v>102</v>
       </c>
@@ -14362,42 +14362,42 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
-      <c r="M50" s="138" t="s">
+      <c r="M50" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="N50" s="139"/>
-      <c r="O50" s="139"/>
-      <c r="P50" s="139"/>
-      <c r="Q50" s="139"/>
-      <c r="R50" s="139"/>
-      <c r="S50" s="139"/>
-      <c r="T50" s="140"/>
+      <c r="N50" s="82"/>
+      <c r="O50" s="82"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="82"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="83"/>
     </row>
     <row r="51" spans="9:23" x14ac:dyDescent="0.2">
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
-      <c r="M51" s="141"/>
-      <c r="N51" s="142"/>
-      <c r="O51" s="142"/>
-      <c r="P51" s="142"/>
-      <c r="Q51" s="142"/>
-      <c r="R51" s="142"/>
-      <c r="S51" s="142"/>
-      <c r="T51" s="143"/>
+      <c r="M51" s="84"/>
+      <c r="N51" s="85"/>
+      <c r="O51" s="85"/>
+      <c r="P51" s="85"/>
+      <c r="Q51" s="85"/>
+      <c r="R51" s="85"/>
+      <c r="S51" s="85"/>
+      <c r="T51" s="86"/>
     </row>
     <row r="52" spans="9:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
-      <c r="M52" s="141"/>
-      <c r="N52" s="142"/>
-      <c r="O52" s="142"/>
-      <c r="P52" s="142"/>
-      <c r="Q52" s="142"/>
-      <c r="R52" s="142"/>
-      <c r="S52" s="142"/>
-      <c r="T52" s="143"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="85"/>
+      <c r="O52" s="85"/>
+      <c r="P52" s="85"/>
+      <c r="Q52" s="85"/>
+      <c r="R52" s="85"/>
+      <c r="S52" s="85"/>
+      <c r="T52" s="86"/>
     </row>
     <row r="53" spans="9:23" x14ac:dyDescent="0.2">
       <c r="J53" s="9"/>
@@ -14450,16 +14450,16 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="93" t="s">
+      <c r="M57" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="N57" s="94"/>
-      <c r="O57" s="94"/>
-      <c r="P57" s="94"/>
-      <c r="Q57" s="94"/>
-      <c r="R57" s="94"/>
-      <c r="S57" s="94"/>
-      <c r="T57" s="95"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="88"/>
+      <c r="P57" s="88"/>
+      <c r="Q57" s="88"/>
+      <c r="R57" s="88"/>
+      <c r="S57" s="88"/>
+      <c r="T57" s="89"/>
       <c r="W57" s="5" t="s">
         <v>103</v>
       </c>
@@ -14469,29 +14469,29 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="138" t="s">
+      <c r="M58" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="N58" s="139"/>
-      <c r="O58" s="139"/>
-      <c r="P58" s="139"/>
-      <c r="Q58" s="139"/>
-      <c r="R58" s="139"/>
-      <c r="S58" s="139"/>
-      <c r="T58" s="140"/>
+      <c r="N58" s="82"/>
+      <c r="O58" s="82"/>
+      <c r="P58" s="82"/>
+      <c r="Q58" s="82"/>
+      <c r="R58" s="82"/>
+      <c r="S58" s="82"/>
+      <c r="T58" s="83"/>
     </row>
     <row r="59" spans="9:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
-      <c r="M59" s="141"/>
-      <c r="N59" s="142"/>
-      <c r="O59" s="142"/>
-      <c r="P59" s="142"/>
-      <c r="Q59" s="142"/>
-      <c r="R59" s="142"/>
-      <c r="S59" s="142"/>
-      <c r="T59" s="143"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="85"/>
+      <c r="O59" s="85"/>
+      <c r="P59" s="85"/>
+      <c r="Q59" s="85"/>
+      <c r="R59" s="85"/>
+      <c r="S59" s="85"/>
+      <c r="T59" s="86"/>
     </row>
     <row r="60" spans="9:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J60" s="9"/>
@@ -14550,16 +14550,16 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
-      <c r="M64" s="136" t="s">
+      <c r="M64" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="N64" s="136"/>
-      <c r="O64" s="136"/>
-      <c r="P64" s="136"/>
-      <c r="Q64" s="136"/>
-      <c r="R64" s="136"/>
-      <c r="S64" s="136"/>
-      <c r="T64" s="136"/>
+      <c r="N64" s="79"/>
+      <c r="O64" s="79"/>
+      <c r="P64" s="79"/>
+      <c r="Q64" s="79"/>
+      <c r="R64" s="79"/>
+      <c r="S64" s="79"/>
+      <c r="T64" s="79"/>
       <c r="W64" s="5" t="s">
         <v>104</v>
       </c>
@@ -14568,29 +14568,29 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
-      <c r="M65" s="137" t="s">
+      <c r="M65" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="N65" s="137"/>
-      <c r="O65" s="137"/>
-      <c r="P65" s="137"/>
-      <c r="Q65" s="137"/>
-      <c r="R65" s="137"/>
-      <c r="S65" s="137"/>
-      <c r="T65" s="137"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="80"/>
+      <c r="P65" s="80"/>
+      <c r="Q65" s="80"/>
+      <c r="R65" s="80"/>
+      <c r="S65" s="80"/>
+      <c r="T65" s="80"/>
     </row>
     <row r="66" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
-      <c r="M66" s="136"/>
-      <c r="N66" s="136"/>
-      <c r="O66" s="136"/>
-      <c r="P66" s="136"/>
-      <c r="Q66" s="136"/>
-      <c r="R66" s="136"/>
-      <c r="S66" s="136"/>
-      <c r="T66" s="136"/>
+      <c r="M66" s="79"/>
+      <c r="N66" s="79"/>
+      <c r="O66" s="79"/>
+      <c r="P66" s="79"/>
+      <c r="Q66" s="79"/>
+      <c r="R66" s="79"/>
+      <c r="S66" s="79"/>
+      <c r="T66" s="79"/>
     </row>
     <row r="67" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J67" s="9"/>
@@ -21581,37 +21581,6 @@
   </sheetData>
   <sheetProtection password="D460" sheet="1" selectLockedCells="1"/>
   <mergeCells count="46">
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="M41:T41"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="M64:T64"/>
-    <mergeCell ref="M65:T65"/>
-    <mergeCell ref="M66:T66"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="M57:T57"/>
-    <mergeCell ref="M50:T52"/>
-    <mergeCell ref="M49:T49"/>
-    <mergeCell ref="M58:T59"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="M9:T9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q7:T7"/>
     <mergeCell ref="Q38:R38"/>
     <mergeCell ref="S38:T38"/>
     <mergeCell ref="M37:T37"/>
@@ -21627,6 +21596,37 @@
     <mergeCell ref="P32:P35"/>
     <mergeCell ref="R32:S32"/>
     <mergeCell ref="T33:T35"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M64:T64"/>
+    <mergeCell ref="M65:T65"/>
+    <mergeCell ref="M66:T66"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="M57:T57"/>
+    <mergeCell ref="M50:T52"/>
+    <mergeCell ref="M49:T49"/>
+    <mergeCell ref="M58:T59"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="M41:T41"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="S39:T39"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="3">
